--- a/data/women/W_2021_11_Pisek.xlsx
+++ b/data/women/W_2021_11_Pisek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FE3D1-5B6D-49A9-97FB-16A50566DAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168A13A-D20B-4562-AA5E-568F866A78E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11316" yWindow="48" windowWidth="13128" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9792" yWindow="-15996" windowWidth="16740" windowHeight="15180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="145">
   <si>
     <t>Zlatý kord města Písku</t>
   </si>
@@ -495,13 +495,43 @@
     <t>Received</t>
   </si>
   <si>
-    <t>Eliminace_</t>
-  </si>
-  <si>
     <t>Pool</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_32</t>
+  </si>
+  <si>
+    <t>Eliminace_16_A</t>
+  </si>
+  <si>
+    <t>Eliminace_8_A</t>
+  </si>
+  <si>
+    <t>Eliminace_16_B</t>
+  </si>
+  <si>
+    <t>Eliminace_16_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_B</t>
+  </si>
+  <si>
+    <t>Eliminace_8</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
   </si>
 </sst>
 </file>
@@ -526,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +578,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +647,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE0AEB6-572F-4034-A277-15B328B49123}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5465,7 +5514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB4226-E0CD-4964-B32A-B8C5B4CC6858}">
   <dimension ref="A1:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView topLeftCell="A272" workbookViewId="0">
       <selection activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
@@ -5534,7 +5583,7 @@
         <v>124</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>99</v>
@@ -5569,7 +5618,7 @@
         <v>124</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>65</v>
@@ -5578,7 +5627,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
@@ -5604,7 +5653,7 @@
         <v>124</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>54</v>
@@ -5613,7 +5662,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
@@ -5639,7 +5688,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>95</v>
@@ -5674,7 +5723,7 @@
         <v>124</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>80</v>
@@ -5709,7 +5758,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>87</v>
@@ -5718,7 +5767,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="13">
         <v>3</v>
@@ -5744,7 +5793,7 @@
         <v>124</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>78</v>
@@ -5753,7 +5802,7 @@
         <v>52</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
@@ -5779,7 +5828,7 @@
         <v>124</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>65</v>
@@ -5788,7 +5837,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
@@ -5814,7 +5863,7 @@
         <v>124</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>54</v>
@@ -5823,7 +5872,7 @@
         <v>55</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
@@ -5849,7 +5898,7 @@
         <v>124</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>95</v>
@@ -5884,7 +5933,7 @@
         <v>124</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>80</v>
@@ -5893,7 +5942,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="11">
         <v>3</v>
@@ -5919,7 +5968,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>87</v>
@@ -5928,7 +5977,7 @@
         <v>67</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="13">
         <v>3</v>
@@ -5954,7 +6003,7 @@
         <v>124</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
@@ -5989,7 +6038,7 @@
         <v>124</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>99</v>
@@ -6024,7 +6073,7 @@
         <v>124</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>54</v>
@@ -6033,7 +6082,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="11">
         <v>2</v>
@@ -6059,7 +6108,7 @@
         <v>124</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>95</v>
@@ -6068,7 +6117,7 @@
         <v>55</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="11">
         <v>2</v>
@@ -6094,7 +6143,7 @@
         <v>124</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>80</v>
@@ -6103,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" s="11">
         <v>3</v>
@@ -6129,7 +6178,7 @@
         <v>124</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>87</v>
@@ -6164,7 +6213,7 @@
         <v>124</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>78</v>
@@ -6199,7 +6248,7 @@
         <v>124</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>99</v>
@@ -6234,7 +6283,7 @@
         <v>124</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>65</v>
@@ -6269,7 +6318,7 @@
         <v>124</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>95</v>
@@ -6304,7 +6353,7 @@
         <v>124</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>80</v>
@@ -6339,7 +6388,7 @@
         <v>124</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>87</v>
@@ -6374,7 +6423,7 @@
         <v>124</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>78</v>
@@ -6383,7 +6432,7 @@
         <v>52</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J26" s="11">
         <v>4</v>
@@ -6409,7 +6458,7 @@
         <v>124</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>99</v>
@@ -6418,7 +6467,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J27" s="11">
         <v>4</v>
@@ -6444,7 +6493,7 @@
         <v>124</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
@@ -6479,7 +6528,7 @@
         <v>124</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>54</v>
@@ -6488,7 +6537,7 @@
         <v>55</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="11">
         <v>2</v>
@@ -6514,7 +6563,7 @@
         <v>124</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>80</v>
@@ -6523,7 +6572,7 @@
         <v>62</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="11">
         <v>4</v>
@@ -6549,7 +6598,7 @@
         <v>124</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>87</v>
@@ -6558,7 +6607,7 @@
         <v>67</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="13">
         <v>1</v>
@@ -6584,7 +6633,7 @@
         <v>124</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>78</v>
@@ -6593,7 +6642,7 @@
         <v>52</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="11">
         <v>3</v>
@@ -6619,7 +6668,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>99</v>
@@ -6654,7 +6703,7 @@
         <v>124</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>65</v>
@@ -6689,7 +6738,7 @@
         <v>124</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>54</v>
@@ -6698,7 +6747,7 @@
         <v>55</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -6724,7 +6773,7 @@
         <v>124</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>95</v>
@@ -6759,7 +6808,7 @@
         <v>124</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>87</v>
@@ -6794,7 +6843,7 @@
         <v>124</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>78</v>
@@ -6829,7 +6878,7 @@
         <v>124</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>99</v>
@@ -6864,7 +6913,7 @@
         <v>124</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>65</v>
@@ -6873,7 +6922,7 @@
         <v>52</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J40" s="11">
         <v>2</v>
@@ -6899,7 +6948,7 @@
         <v>124</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>54</v>
@@ -6908,7 +6957,7 @@
         <v>55</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="11">
         <v>1</v>
@@ -6934,7 +6983,7 @@
         <v>124</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>95</v>
@@ -6969,7 +7018,7 @@
         <v>124</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>80</v>
@@ -6978,7 +7027,7 @@
         <v>62</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="13">
         <v>2</v>
@@ -7004,7 +7053,7 @@
         <v>124</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>79</v>
@@ -7013,7 +7062,7 @@
         <v>55</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" s="14">
         <v>3</v>
@@ -7039,7 +7088,7 @@
         <v>124</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>90</v>
@@ -7074,7 +7123,7 @@
         <v>124</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>51</v>
@@ -7083,7 +7132,7 @@
         <v>52</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="14">
         <v>1</v>
@@ -7109,7 +7158,7 @@
         <v>124</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>61</v>
@@ -7118,7 +7167,7 @@
         <v>59</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J47" s="14">
         <v>2</v>
@@ -7144,7 +7193,7 @@
         <v>124</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>93</v>
@@ -7179,7 +7228,7 @@
         <v>124</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>49</v>
@@ -7214,7 +7263,7 @@
         <v>124</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>84</v>
@@ -7249,7 +7298,7 @@
         <v>124</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>90</v>
@@ -7284,7 +7333,7 @@
         <v>124</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>51</v>
@@ -7293,7 +7342,7 @@
         <v>52</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J52" s="14">
         <v>0</v>
@@ -7319,7 +7368,7 @@
         <v>124</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>61</v>
@@ -7354,7 +7403,7 @@
         <v>124</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>93</v>
@@ -7389,7 +7438,7 @@
         <v>124</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>49</v>
@@ -7424,7 +7473,7 @@
         <v>124</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>84</v>
@@ -7433,7 +7482,7 @@
         <v>52</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J56" s="14">
         <v>3</v>
@@ -7459,7 +7508,7 @@
         <v>124</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>79</v>
@@ -7468,7 +7517,7 @@
         <v>55</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J57" s="14">
         <v>2</v>
@@ -7494,7 +7543,7 @@
         <v>124</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>51</v>
@@ -7503,7 +7552,7 @@
         <v>52</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" s="14">
         <v>2</v>
@@ -7529,7 +7578,7 @@
         <v>124</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>61</v>
@@ -7538,7 +7587,7 @@
         <v>59</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J59" s="14">
         <v>1</v>
@@ -7564,7 +7613,7 @@
         <v>124</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>93</v>
@@ -7599,7 +7648,7 @@
         <v>124</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>49</v>
@@ -7634,7 +7683,7 @@
         <v>124</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>84</v>
@@ -7669,7 +7718,7 @@
         <v>124</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>79</v>
@@ -7704,7 +7753,7 @@
         <v>124</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>90</v>
@@ -7739,7 +7788,7 @@
         <v>124</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>61</v>
@@ -7774,7 +7823,7 @@
         <v>124</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>93</v>
@@ -7809,7 +7858,7 @@
         <v>124</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>49</v>
@@ -7844,7 +7893,7 @@
         <v>124</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>84</v>
@@ -7879,7 +7928,7 @@
         <v>124</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>79</v>
@@ -7888,7 +7937,7 @@
         <v>55</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J69" s="14">
         <v>3</v>
@@ -7914,7 +7963,7 @@
         <v>124</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>90</v>
@@ -7949,7 +7998,7 @@
         <v>124</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>51</v>
@@ -7958,7 +8007,7 @@
         <v>52</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J71" s="14">
         <v>4</v>
@@ -7984,7 +8033,7 @@
         <v>124</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>93</v>
@@ -7993,7 +8042,7 @@
         <v>94</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J72" s="14">
         <v>4</v>
@@ -8019,7 +8068,7 @@
         <v>124</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>49</v>
@@ -8054,7 +8103,7 @@
         <v>124</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>84</v>
@@ -8063,7 +8112,7 @@
         <v>52</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J74" s="14">
         <v>1</v>
@@ -8089,7 +8138,7 @@
         <v>124</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>79</v>
@@ -8098,7 +8147,7 @@
         <v>55</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J75" s="14">
         <v>1</v>
@@ -8124,7 +8173,7 @@
         <v>124</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>90</v>
@@ -8133,7 +8182,7 @@
         <v>58</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J76" s="14">
         <v>1</v>
@@ -8159,7 +8208,7 @@
         <v>124</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>51</v>
@@ -8168,7 +8217,7 @@
         <v>52</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J77" s="14">
         <v>4</v>
@@ -8194,7 +8243,7 @@
         <v>124</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>61</v>
@@ -8229,7 +8278,7 @@
         <v>124</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>49</v>
@@ -8264,7 +8313,7 @@
         <v>124</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>84</v>
@@ -8273,7 +8322,7 @@
         <v>52</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J80" s="14">
         <v>3</v>
@@ -8299,7 +8348,7 @@
         <v>124</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>79</v>
@@ -8308,7 +8357,7 @@
         <v>55</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J81" s="14">
         <v>1</v>
@@ -8334,7 +8383,7 @@
         <v>124</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>90</v>
@@ -8343,7 +8392,7 @@
         <v>58</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J82" s="14">
         <v>3</v>
@@ -8369,7 +8418,7 @@
         <v>124</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>51</v>
@@ -8378,7 +8427,7 @@
         <v>52</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J83" s="14">
         <v>2</v>
@@ -8404,7 +8453,7 @@
         <v>124</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>61</v>
@@ -8413,7 +8462,7 @@
         <v>59</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J84" s="14">
         <v>1</v>
@@ -8439,7 +8488,7 @@
         <v>124</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>93</v>
@@ -8448,7 +8497,7 @@
         <v>94</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J85" s="16">
         <v>2</v>
@@ -8474,7 +8523,7 @@
         <v>124</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>88</v>
@@ -8509,7 +8558,7 @@
         <v>124</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>102</v>
@@ -8544,7 +8593,7 @@
         <v>124</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>60</v>
@@ -8579,7 +8628,7 @@
         <v>124</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>63</v>
@@ -8588,7 +8637,7 @@
         <v>52</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J89" s="11">
         <v>3</v>
@@ -8614,7 +8663,7 @@
         <v>124</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>11</v>
@@ -8623,7 +8672,7 @@
         <v>62</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
@@ -8649,7 +8698,7 @@
         <v>124</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>76</v>
@@ -8684,7 +8733,7 @@
         <v>124</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>75</v>
@@ -8693,7 +8742,7 @@
         <v>55</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J92" s="11">
         <v>3</v>
@@ -8719,7 +8768,7 @@
         <v>124</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>102</v>
@@ -8754,7 +8803,7 @@
         <v>124</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>60</v>
@@ -8763,7 +8812,7 @@
         <v>55</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J94" s="11">
         <v>2</v>
@@ -8789,7 +8838,7 @@
         <v>124</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>63</v>
@@ -8798,7 +8847,7 @@
         <v>52</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J95" s="11">
         <v>4</v>
@@ -8824,7 +8873,7 @@
         <v>124</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>11</v>
@@ -8833,7 +8882,7 @@
         <v>62</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J96" s="11">
         <v>2</v>
@@ -8859,7 +8908,7 @@
         <v>124</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>76</v>
@@ -8894,7 +8943,7 @@
         <v>124</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>75</v>
@@ -8903,7 +8952,7 @@
         <v>55</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J98" s="11">
         <v>2</v>
@@ -8929,7 +8978,7 @@
         <v>124</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>88</v>
@@ -8938,7 +8987,7 @@
         <v>52</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -8964,7 +9013,7 @@
         <v>124</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>60</v>
@@ -8973,7 +9022,7 @@
         <v>55</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J100" s="11">
         <v>3</v>
@@ -8999,7 +9048,7 @@
         <v>124</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>63</v>
@@ -9008,7 +9057,7 @@
         <v>52</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J101" s="11">
         <v>2</v>
@@ -9034,7 +9083,7 @@
         <v>124</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>11</v>
@@ -9043,7 +9092,7 @@
         <v>62</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J102" s="11">
         <v>2</v>
@@ -9069,7 +9118,7 @@
         <v>124</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>76</v>
@@ -9078,7 +9127,7 @@
         <v>59</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J103" s="13">
         <v>1</v>
@@ -9104,7 +9153,7 @@
         <v>124</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>75</v>
@@ -9113,7 +9162,7 @@
         <v>55</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J104" s="11">
         <v>4</v>
@@ -9139,7 +9188,7 @@
         <v>124</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>88</v>
@@ -9174,7 +9223,7 @@
         <v>124</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>102</v>
@@ -9209,7 +9258,7 @@
         <v>124</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>63</v>
@@ -9244,7 +9293,7 @@
         <v>124</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>11</v>
@@ -9279,7 +9328,7 @@
         <v>124</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>76</v>
@@ -9288,7 +9337,7 @@
         <v>59</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J109" s="13">
         <v>4</v>
@@ -9314,7 +9363,7 @@
         <v>124</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>75</v>
@@ -9349,7 +9398,7 @@
         <v>124</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>88</v>
@@ -9384,7 +9433,7 @@
         <v>124</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>102</v>
@@ -9419,7 +9468,7 @@
         <v>124</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>60</v>
@@ -9428,7 +9477,7 @@
         <v>55</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J113" s="11">
         <v>2</v>
@@ -9454,7 +9503,7 @@
         <v>124</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>11</v>
@@ -9463,7 +9512,7 @@
         <v>62</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J114" s="11">
         <v>4</v>
@@ -9489,7 +9538,7 @@
         <v>124</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>76</v>
@@ -9524,7 +9573,7 @@
         <v>124</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>75</v>
@@ -9559,7 +9608,7 @@
         <v>124</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>88</v>
@@ -9594,7 +9643,7 @@
         <v>124</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>102</v>
@@ -9629,7 +9678,7 @@
         <v>124</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>60</v>
@@ -9638,7 +9687,7 @@
         <v>55</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J119" s="11">
         <v>4</v>
@@ -9664,7 +9713,7 @@
         <v>124</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>63</v>
@@ -9699,7 +9748,7 @@
         <v>124</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>76</v>
@@ -9708,7 +9757,7 @@
         <v>59</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J121" s="13">
         <v>4</v>
@@ -9734,7 +9783,7 @@
         <v>124</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>75</v>
@@ -9743,7 +9792,7 @@
         <v>55</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J122" s="11">
         <v>3</v>
@@ -9769,7 +9818,7 @@
         <v>124</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>88</v>
@@ -9778,7 +9827,7 @@
         <v>52</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J123" s="11">
         <v>4</v>
@@ -9804,7 +9853,7 @@
         <v>124</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>102</v>
@@ -9839,7 +9888,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>60</v>
@@ -9874,7 +9923,7 @@
         <v>124</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>63</v>
@@ -9883,7 +9932,7 @@
         <v>52</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J126" s="11">
         <v>4</v>
@@ -9909,7 +9958,7 @@
         <v>124</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>11</v>
@@ -9944,7 +9993,7 @@
         <v>124</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
@@ -9953,7 +10002,7 @@
         <v>67</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J128" s="14">
         <v>1</v>
@@ -9979,7 +10028,7 @@
         <v>124</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>96</v>
@@ -10014,7 +10063,7 @@
         <v>124</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>45</v>
@@ -10023,7 +10072,7 @@
         <v>52</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J130" s="14">
         <v>4</v>
@@ -10049,7 +10098,7 @@
         <v>124</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>72</v>
@@ -10058,7 +10107,7 @@
         <v>73</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J131" s="14">
         <v>4</v>
@@ -10084,7 +10133,7 @@
         <v>124</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>57</v>
@@ -10119,7 +10168,7 @@
         <v>124</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G133" s="15" t="s">
         <v>64</v>
@@ -10154,7 +10203,7 @@
         <v>124</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>53</v>
@@ -10189,7 +10238,7 @@
         <v>124</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>96</v>
@@ -10224,7 +10273,7 @@
         <v>124</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>45</v>
@@ -10259,7 +10308,7 @@
         <v>124</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>72</v>
@@ -10268,7 +10317,7 @@
         <v>73</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J137" s="14">
         <v>3</v>
@@ -10294,7 +10343,7 @@
         <v>124</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>57</v>
@@ -10303,7 +10352,7 @@
         <v>58</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J138" s="14">
         <v>3</v>
@@ -10329,7 +10378,7 @@
         <v>124</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G139" s="15" t="s">
         <v>64</v>
@@ -10338,7 +10387,7 @@
         <v>55</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J139" s="16">
         <v>4</v>
@@ -10364,7 +10413,7 @@
         <v>124</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>53</v>
@@ -10373,7 +10422,7 @@
         <v>52</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J140" s="14">
         <v>1</v>
@@ -10399,7 +10448,7 @@
         <v>124</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -10408,7 +10457,7 @@
         <v>67</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J141" s="14">
         <v>3</v>
@@ -10434,7 +10483,7 @@
         <v>124</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>45</v>
@@ -10469,7 +10518,7 @@
         <v>124</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>72</v>
@@ -10478,7 +10527,7 @@
         <v>73</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J143" s="14">
         <v>3</v>
@@ -10504,7 +10553,7 @@
         <v>124</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>57</v>
@@ -10513,7 +10562,7 @@
         <v>58</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J144" s="14">
         <v>3</v>
@@ -10539,7 +10588,7 @@
         <v>124</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>64</v>
@@ -10548,7 +10597,7 @@
         <v>55</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J145" s="16">
         <v>3</v>
@@ -10574,7 +10623,7 @@
         <v>124</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>53</v>
@@ -10609,7 +10658,7 @@
         <v>124</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
@@ -10618,7 +10667,7 @@
         <v>67</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J147" s="14">
         <v>1</v>
@@ -10644,7 +10693,7 @@
         <v>124</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>96</v>
@@ -10653,7 +10702,7 @@
         <v>59</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J148" s="14">
         <v>3</v>
@@ -10679,7 +10728,7 @@
         <v>124</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>72</v>
@@ -10688,7 +10737,7 @@
         <v>73</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J149" s="14">
         <v>4</v>
@@ -10714,7 +10763,7 @@
         <v>124</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>57</v>
@@ -10723,7 +10772,7 @@
         <v>58</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J150" s="14">
         <v>1</v>
@@ -10749,7 +10798,7 @@
         <v>124</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G151" s="15" t="s">
         <v>64</v>
@@ -10758,7 +10807,7 @@
         <v>55</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J151" s="16">
         <v>1</v>
@@ -10784,7 +10833,7 @@
         <v>124</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>53</v>
@@ -10819,7 +10868,7 @@
         <v>124</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>20</v>
@@ -10854,7 +10903,7 @@
         <v>124</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>96</v>
@@ -10889,7 +10938,7 @@
         <v>124</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>45</v>
@@ -10924,7 +10973,7 @@
         <v>124</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>57</v>
@@ -10933,7 +10982,7 @@
         <v>58</v>
       </c>
       <c r="I156" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J156" s="14">
         <v>1</v>
@@ -10959,7 +11008,7 @@
         <v>124</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G157" s="15" t="s">
         <v>64</v>
@@ -10994,7 +11043,7 @@
         <v>124</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>53</v>
@@ -11003,7 +11052,7 @@
         <v>52</v>
       </c>
       <c r="I158" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J158" s="14">
         <v>2</v>
@@ -11029,7 +11078,7 @@
         <v>124</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
@@ -11064,7 +11113,7 @@
         <v>124</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>96</v>
@@ -11099,7 +11148,7 @@
         <v>124</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>45</v>
@@ -11134,7 +11183,7 @@
         <v>124</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>72</v>
@@ -11169,7 +11218,7 @@
         <v>124</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G163" s="15" t="s">
         <v>64</v>
@@ -11204,7 +11253,7 @@
         <v>124</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>53</v>
@@ -11213,7 +11262,7 @@
         <v>52</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J164" s="14">
         <v>3</v>
@@ -11239,7 +11288,7 @@
         <v>124</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>20</v>
@@ -11274,7 +11323,7 @@
         <v>124</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>96</v>
@@ -11309,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>45</v>
@@ -11344,7 +11393,7 @@
         <v>124</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>72</v>
@@ -11353,7 +11402,7 @@
         <v>73</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J168" s="14">
         <v>4</v>
@@ -11379,7 +11428,7 @@
         <v>124</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G169" s="15" t="s">
         <v>57</v>
@@ -11388,7 +11437,7 @@
         <v>58</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J169" s="16">
         <v>4</v>
@@ -11414,7 +11463,7 @@
         <v>124</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>91</v>
@@ -11423,7 +11472,7 @@
         <v>92</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J170" s="11">
         <v>4</v>
@@ -11449,7 +11498,7 @@
         <v>124</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>66</v>
@@ -11458,7 +11507,7 @@
         <v>67</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J171" s="11">
         <v>1</v>
@@ -11484,7 +11533,7 @@
         <v>124</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>68</v>
@@ -11493,7 +11542,7 @@
         <v>52</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J172" s="11">
         <v>3</v>
@@ -11519,7 +11568,7 @@
         <v>124</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>97</v>
@@ -11554,7 +11603,7 @@
         <v>124</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>19</v>
@@ -11563,7 +11612,7 @@
         <v>59</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J174" s="11">
         <v>1</v>
@@ -11589,7 +11638,7 @@
         <v>124</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>74</v>
@@ -11598,7 +11647,7 @@
         <v>55</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J175" s="13">
         <v>2</v>
@@ -11624,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>98</v>
@@ -11659,7 +11708,7 @@
         <v>124</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>66</v>
@@ -11668,7 +11717,7 @@
         <v>67</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J177" s="11">
         <v>0</v>
@@ -11694,7 +11743,7 @@
         <v>124</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>68</v>
@@ -11703,7 +11752,7 @@
         <v>52</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J178" s="11">
         <v>4</v>
@@ -11729,7 +11778,7 @@
         <v>124</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>97</v>
@@ -11764,7 +11813,7 @@
         <v>124</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>19</v>
@@ -11773,7 +11822,7 @@
         <v>59</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J180" s="11">
         <v>3</v>
@@ -11799,7 +11848,7 @@
         <v>124</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G181" s="12" t="s">
         <v>74</v>
@@ -11808,7 +11857,7 @@
         <v>55</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J181" s="13">
         <v>4</v>
@@ -11834,7 +11883,7 @@
         <v>124</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>98</v>
@@ -11869,7 +11918,7 @@
         <v>124</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>91</v>
@@ -11904,7 +11953,7 @@
         <v>124</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>68</v>
@@ -11939,7 +11988,7 @@
         <v>124</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>97</v>
@@ -11974,7 +12023,7 @@
         <v>124</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>19</v>
@@ -12009,7 +12058,7 @@
         <v>124</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>74</v>
@@ -12044,7 +12093,7 @@
         <v>124</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>98</v>
@@ -12079,7 +12128,7 @@
         <v>124</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>91</v>
@@ -12114,7 +12163,7 @@
         <v>124</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>66</v>
@@ -12123,7 +12172,7 @@
         <v>67</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J190" s="11">
         <v>4</v>
@@ -12149,7 +12198,7 @@
         <v>124</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>97</v>
@@ -12184,7 +12233,7 @@
         <v>124</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>19</v>
@@ -12193,7 +12242,7 @@
         <v>59</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J192" s="11">
         <v>2</v>
@@ -12219,7 +12268,7 @@
         <v>124</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G193" s="12" t="s">
         <v>74</v>
@@ -12254,7 +12303,7 @@
         <v>124</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>98</v>
@@ -12263,7 +12312,7 @@
         <v>52</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J194" s="11">
         <v>4</v>
@@ -12289,7 +12338,7 @@
         <v>124</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>91</v>
@@ -12298,7 +12347,7 @@
         <v>92</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J195" s="11">
         <v>4</v>
@@ -12324,7 +12373,7 @@
         <v>124</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>66</v>
@@ -12333,7 +12382,7 @@
         <v>67</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J196" s="11">
         <v>1</v>
@@ -12359,7 +12408,7 @@
         <v>124</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>68</v>
@@ -12368,7 +12417,7 @@
         <v>52</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J197" s="11">
         <v>1</v>
@@ -12394,7 +12443,7 @@
         <v>124</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>19</v>
@@ -12429,7 +12478,7 @@
         <v>124</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>74</v>
@@ -12438,7 +12487,7 @@
         <v>55</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J199" s="13">
         <v>3</v>
@@ -12464,7 +12513,7 @@
         <v>124</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>98</v>
@@ -12499,7 +12548,7 @@
         <v>124</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>91</v>
@@ -12534,7 +12583,7 @@
         <v>124</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>66</v>
@@ -12543,7 +12592,7 @@
         <v>67</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J202" s="11">
         <v>4</v>
@@ -12569,7 +12618,7 @@
         <v>124</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>68</v>
@@ -12604,7 +12653,7 @@
         <v>124</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G204" s="10" t="s">
         <v>97</v>
@@ -12613,7 +12662,7 @@
         <v>58</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J204" s="11">
         <v>4</v>
@@ -12639,7 +12688,7 @@
         <v>124</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G205" s="12" t="s">
         <v>74</v>
@@ -12648,7 +12697,7 @@
         <v>55</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J205" s="13">
         <v>4</v>
@@ -12674,7 +12723,7 @@
         <v>124</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G206" s="10" t="s">
         <v>98</v>
@@ -12709,7 +12758,7 @@
         <v>124</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G207" s="10" t="s">
         <v>91</v>
@@ -12744,7 +12793,7 @@
         <v>124</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>66</v>
@@ -12753,7 +12802,7 @@
         <v>67</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J208" s="11">
         <v>4</v>
@@ -12779,7 +12828,7 @@
         <v>124</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G209" s="10" t="s">
         <v>68</v>
@@ -12788,7 +12837,7 @@
         <v>52</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J209" s="11">
         <v>4</v>
@@ -12814,7 +12863,7 @@
         <v>124</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G210" s="10" t="s">
         <v>97</v>
@@ -12849,7 +12898,7 @@
         <v>124</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G211" s="12" t="s">
         <v>19</v>
@@ -12884,7 +12933,7 @@
         <v>124</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>82</v>
@@ -12893,7 +12942,7 @@
         <v>67</v>
       </c>
       <c r="I212" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J212" s="14">
         <v>3</v>
@@ -12919,7 +12968,7 @@
         <v>124</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>69</v>
@@ -12954,7 +13003,7 @@
         <v>124</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>56</v>
@@ -12963,7 +13012,7 @@
         <v>52</v>
       </c>
       <c r="I214" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J214" s="14">
         <v>2</v>
@@ -12989,7 +13038,7 @@
         <v>124</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>81</v>
@@ -13024,7 +13073,7 @@
         <v>124</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>47</v>
@@ -13059,7 +13108,7 @@
         <v>124</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G217" s="15" t="s">
         <v>85</v>
@@ -13068,7 +13117,7 @@
         <v>59</v>
       </c>
       <c r="I217" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J217" s="16">
         <v>2</v>
@@ -13094,7 +13143,7 @@
         <v>124</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>33</v>
@@ -13129,7 +13178,7 @@
         <v>124</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>69</v>
@@ -13138,7 +13187,7 @@
         <v>55</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J219" s="14">
         <v>4</v>
@@ -13164,7 +13213,7 @@
         <v>124</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>56</v>
@@ -13173,7 +13222,7 @@
         <v>52</v>
       </c>
       <c r="I220" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J220" s="14">
         <v>4</v>
@@ -13199,7 +13248,7 @@
         <v>124</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>81</v>
@@ -13208,7 +13257,7 @@
         <v>71</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J221" s="14">
         <v>4</v>
@@ -13234,7 +13283,7 @@
         <v>124</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>47</v>
@@ -13269,7 +13318,7 @@
         <v>124</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G223" s="15" t="s">
         <v>85</v>
@@ -13304,7 +13353,7 @@
         <v>124</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>33</v>
@@ -13313,7 +13362,7 @@
         <v>52</v>
       </c>
       <c r="I224" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J224" s="14">
         <v>4</v>
@@ -13339,7 +13388,7 @@
         <v>124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>82</v>
@@ -13374,7 +13423,7 @@
         <v>124</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>56</v>
@@ -13383,7 +13432,7 @@
         <v>52</v>
       </c>
       <c r="I226" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J226" s="14">
         <v>2</v>
@@ -13409,7 +13458,7 @@
         <v>124</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G227" s="4" t="s">
         <v>81</v>
@@ -13444,7 +13493,7 @@
         <v>124</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>47</v>
@@ -13479,7 +13528,7 @@
         <v>124</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G229" s="15" t="s">
         <v>85</v>
@@ -13488,7 +13537,7 @@
         <v>59</v>
       </c>
       <c r="I229" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J229" s="16">
         <v>4</v>
@@ -13514,7 +13563,7 @@
         <v>124</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>33</v>
@@ -13549,7 +13598,7 @@
         <v>124</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>82</v>
@@ -13584,7 +13633,7 @@
         <v>124</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>69</v>
@@ -13619,7 +13668,7 @@
         <v>124</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>81</v>
@@ -13654,7 +13703,7 @@
         <v>124</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>47</v>
@@ -13689,7 +13738,7 @@
         <v>124</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G235" s="15" t="s">
         <v>85</v>
@@ -13724,7 +13773,7 @@
         <v>124</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>33</v>
@@ -13733,7 +13782,7 @@
         <v>52</v>
       </c>
       <c r="I236" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J236" s="14">
         <v>4</v>
@@ -13759,7 +13808,7 @@
         <v>124</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>82</v>
@@ -13794,7 +13843,7 @@
         <v>124</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>69</v>
@@ -13803,7 +13852,7 @@
         <v>55</v>
       </c>
       <c r="I238" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J238" s="14">
         <v>4</v>
@@ -13829,7 +13878,7 @@
         <v>124</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>56</v>
@@ -13838,7 +13887,7 @@
         <v>52</v>
       </c>
       <c r="I239" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J239" s="14">
         <v>3</v>
@@ -13864,7 +13913,7 @@
         <v>124</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>47</v>
@@ -13899,7 +13948,7 @@
         <v>124</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G241" s="15" t="s">
         <v>85</v>
@@ -13934,7 +13983,7 @@
         <v>124</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>33</v>
@@ -13943,7 +13992,7 @@
         <v>52</v>
       </c>
       <c r="I242" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J242" s="14">
         <v>2</v>
@@ -13969,7 +14018,7 @@
         <v>124</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>82</v>
@@ -13978,7 +14027,7 @@
         <v>67</v>
       </c>
       <c r="I243" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J243" s="14">
         <v>4</v>
@@ -14004,7 +14053,7 @@
         <v>124</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>69</v>
@@ -14013,7 +14062,7 @@
         <v>55</v>
       </c>
       <c r="I244" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J244" s="14">
         <v>4</v>
@@ -14039,7 +14088,7 @@
         <v>124</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>56</v>
@@ -14048,7 +14097,7 @@
         <v>52</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J245" s="14">
         <v>2</v>
@@ -14074,7 +14123,7 @@
         <v>124</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>81</v>
@@ -14083,7 +14132,7 @@
         <v>71</v>
       </c>
       <c r="I246" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J246" s="14">
         <v>3</v>
@@ -14109,7 +14158,7 @@
         <v>124</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G247" s="15" t="s">
         <v>85</v>
@@ -14118,7 +14167,7 @@
         <v>59</v>
       </c>
       <c r="I247" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J247" s="16">
         <v>3</v>
@@ -14144,7 +14193,7 @@
         <v>124</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>33</v>
@@ -14179,7 +14228,7 @@
         <v>124</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>82</v>
@@ -14188,7 +14237,7 @@
         <v>67</v>
       </c>
       <c r="I249" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J249" s="14">
         <v>3</v>
@@ -14214,7 +14263,7 @@
         <v>124</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>69</v>
@@ -14249,7 +14298,7 @@
         <v>124</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>56</v>
@@ -14258,7 +14307,7 @@
         <v>52</v>
       </c>
       <c r="I251" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J251" s="14">
         <v>4</v>
@@ -14284,7 +14333,7 @@
         <v>124</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>81</v>
@@ -14293,7 +14342,7 @@
         <v>71</v>
       </c>
       <c r="I252" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J252" s="14">
         <v>0</v>
@@ -14319,7 +14368,7 @@
         <v>124</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G253" s="15" t="s">
         <v>47</v>
@@ -14354,7 +14403,7 @@
         <v>124</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G254" s="10" t="s">
         <v>77</v>
@@ -14363,7 +14412,7 @@
         <v>52</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J254" s="11">
         <v>4</v>
@@ -14389,7 +14438,7 @@
         <v>124</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G255" s="10" t="s">
         <v>89</v>
@@ -14424,7 +14473,7 @@
         <v>124</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G256" s="10" t="s">
         <v>83</v>
@@ -14433,7 +14482,7 @@
         <v>55</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J256" s="11">
         <v>3</v>
@@ -14459,7 +14508,7 @@
         <v>124</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G257" s="10" t="s">
         <v>70</v>
@@ -14468,7 +14517,7 @@
         <v>71</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J257" s="11">
         <v>4</v>
@@ -14494,7 +14543,7 @@
         <v>124</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G258" s="10" t="s">
         <v>9</v>
@@ -14503,7 +14552,7 @@
         <v>59</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J258" s="11">
         <v>3</v>
@@ -14529,7 +14578,7 @@
         <v>124</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>101</v>
@@ -14564,7 +14613,7 @@
         <v>124</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G260" s="10" t="s">
         <v>86</v>
@@ -14599,7 +14648,7 @@
         <v>124</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G261" s="10" t="s">
         <v>89</v>
@@ -14634,7 +14683,7 @@
         <v>124</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G262" s="10" t="s">
         <v>83</v>
@@ -14643,7 +14692,7 @@
         <v>55</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J262" s="11">
         <v>4</v>
@@ -14669,7 +14718,7 @@
         <v>124</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G263" s="10" t="s">
         <v>70</v>
@@ -14678,7 +14727,7 @@
         <v>71</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J263" s="11">
         <v>3</v>
@@ -14704,7 +14753,7 @@
         <v>124</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G264" s="10" t="s">
         <v>9</v>
@@ -14713,7 +14762,7 @@
         <v>59</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J264" s="11">
         <v>4</v>
@@ -14739,7 +14788,7 @@
         <v>124</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G265" s="12" t="s">
         <v>101</v>
@@ -14774,7 +14823,7 @@
         <v>124</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G266" s="10" t="s">
         <v>86</v>
@@ -14783,7 +14832,7 @@
         <v>52</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J266" s="11">
         <v>4</v>
@@ -14809,7 +14858,7 @@
         <v>124</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>77</v>
@@ -14818,7 +14867,7 @@
         <v>52</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J267" s="11">
         <v>2</v>
@@ -14844,7 +14893,7 @@
         <v>124</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>83</v>
@@ -14879,7 +14928,7 @@
         <v>124</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G269" s="10" t="s">
         <v>70</v>
@@ -14888,7 +14937,7 @@
         <v>71</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J269" s="11">
         <v>4</v>
@@ -14914,7 +14963,7 @@
         <v>124</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>9</v>
@@ -14923,7 +14972,7 @@
         <v>59</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J270" s="11">
         <v>2</v>
@@ -14949,7 +14998,7 @@
         <v>124</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G271" s="12" t="s">
         <v>101</v>
@@ -14984,7 +15033,7 @@
         <v>124</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G272" s="10" t="s">
         <v>86</v>
@@ -15019,7 +15068,7 @@
         <v>124</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G273" s="10" t="s">
         <v>77</v>
@@ -15054,7 +15103,7 @@
         <v>124</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G274" s="10" t="s">
         <v>89</v>
@@ -15063,7 +15112,7 @@
         <v>52</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J274" s="11">
         <v>4</v>
@@ -15089,7 +15138,7 @@
         <v>124</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>70</v>
@@ -15098,7 +15147,7 @@
         <v>71</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J275" s="11">
         <v>2</v>
@@ -15124,7 +15173,7 @@
         <v>124</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G276" s="10" t="s">
         <v>9</v>
@@ -15133,7 +15182,7 @@
         <v>59</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J276" s="11">
         <v>3</v>
@@ -15159,7 +15208,7 @@
         <v>124</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>101</v>
@@ -15194,7 +15243,7 @@
         <v>124</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G278" s="10" t="s">
         <v>86</v>
@@ -15229,7 +15278,7 @@
         <v>124</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>77</v>
@@ -15264,7 +15313,7 @@
         <v>124</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>89</v>
@@ -15299,7 +15348,7 @@
         <v>124</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G281" s="10" t="s">
         <v>83</v>
@@ -15334,7 +15383,7 @@
         <v>124</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G282" s="10" t="s">
         <v>9</v>
@@ -15369,7 +15418,7 @@
         <v>124</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>101</v>
@@ -15404,7 +15453,7 @@
         <v>124</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>86</v>
@@ -15439,7 +15488,7 @@
         <v>124</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>77</v>
@@ -15474,7 +15523,7 @@
         <v>124</v>
       </c>
       <c r="F286" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>89</v>
@@ -15509,7 +15558,7 @@
         <v>124</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>83</v>
@@ -15544,7 +15593,7 @@
         <v>124</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>70</v>
@@ -15553,7 +15602,7 @@
         <v>71</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J288" s="11">
         <v>2</v>
@@ -15579,7 +15628,7 @@
         <v>124</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>101</v>
@@ -15614,7 +15663,7 @@
         <v>124</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G290" s="10" t="s">
         <v>86</v>
@@ -15623,7 +15672,7 @@
         <v>52</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J290" s="11">
         <v>2</v>
@@ -15649,7 +15698,7 @@
         <v>124</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G291" s="10" t="s">
         <v>77</v>
@@ -15658,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J291" s="11">
         <v>3</v>
@@ -15684,7 +15733,7 @@
         <v>124</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G292" s="10" t="s">
         <v>89</v>
@@ -15693,7 +15742,7 @@
         <v>52</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J292" s="11">
         <v>4</v>
@@ -15719,7 +15768,7 @@
         <v>124</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G293" s="10" t="s">
         <v>83</v>
@@ -15728,7 +15777,7 @@
         <v>55</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J293" s="11">
         <v>3</v>
@@ -15754,7 +15803,7 @@
         <v>124</v>
       </c>
       <c r="F294" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G294" s="10" t="s">
         <v>70</v>
@@ -15763,7 +15812,7 @@
         <v>71</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J294" s="11">
         <v>1</v>
@@ -15789,7 +15838,7 @@
         <v>124</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G295" s="12" t="s">
         <v>9</v>
@@ -15798,7 +15847,7 @@
         <v>59</v>
       </c>
       <c r="I295" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J295" s="13">
         <v>2</v>
@@ -15817,22 +15866,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD24029-DFEE-45EC-BD54-8FA1A84C0C5D}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="19" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
@@ -15878,11 +15927,32 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
       <c r="E2" t="s">
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15892,8 +15962,32 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" t="s">
         <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15903,8 +15997,32 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" t="s">
         <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="7">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15914,8 +16032,32 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" t="s">
         <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15925,8 +16067,32 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" t="s">
         <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15936,8 +16102,32 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" t="s">
         <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="7">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15947,8 +16137,32 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" t="s">
         <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15958,8 +16172,32 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
       <c r="E9" t="s">
         <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15969,8 +16207,32 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" t="s">
         <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="7">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15980,8 +16242,32 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
       <c r="E11" t="s">
         <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="7">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15991,8 +16277,32 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" t="s">
         <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -16002,10 +16312,4070 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" t="s">
         <v>124</v>
       </c>
-    </row>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>44507</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="19">
+        <v>15</v>
+      </c>
+      <c r="K15" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="7">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="7">
+        <v>15</v>
+      </c>
+      <c r="K18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="7">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="7">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15</v>
+      </c>
+      <c r="K23" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="7">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="7">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="7">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="7">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="7">
+        <v>15</v>
+      </c>
+      <c r="K28" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="7">
+        <v>8</v>
+      </c>
+      <c r="K29" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="7">
+        <v>9</v>
+      </c>
+      <c r="K30" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="7">
+        <v>15</v>
+      </c>
+      <c r="K31" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="7">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="7">
+        <v>7</v>
+      </c>
+      <c r="K33" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="7">
+        <v>15</v>
+      </c>
+      <c r="K35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="7">
+        <v>9</v>
+      </c>
+      <c r="K36" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="7">
+        <v>15</v>
+      </c>
+      <c r="K37" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="7">
+        <v>9</v>
+      </c>
+      <c r="K38" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="7">
+        <v>15</v>
+      </c>
+      <c r="K39" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="7">
+        <v>12</v>
+      </c>
+      <c r="K40" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="7">
+        <v>15</v>
+      </c>
+      <c r="K41" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="7">
+        <v>12</v>
+      </c>
+      <c r="K42" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" s="7">
+        <v>15</v>
+      </c>
+      <c r="K43" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="7">
+        <v>15</v>
+      </c>
+      <c r="K44" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="7">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="7">
+        <v>6</v>
+      </c>
+      <c r="K46" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="19">
+        <v>15</v>
+      </c>
+      <c r="K47" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="7">
+        <v>15</v>
+      </c>
+      <c r="K48" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="7">
+        <v>6</v>
+      </c>
+      <c r="K49" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="7">
+        <v>8</v>
+      </c>
+      <c r="K50" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="7">
+        <v>15</v>
+      </c>
+      <c r="K51" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52" s="7">
+        <v>9</v>
+      </c>
+      <c r="K52" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="7">
+        <v>15</v>
+      </c>
+      <c r="K53" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="7">
+        <v>11</v>
+      </c>
+      <c r="K54" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="7">
+        <v>15</v>
+      </c>
+      <c r="K55" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J56" s="7">
+        <v>12</v>
+      </c>
+      <c r="K56" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="7">
+        <v>15</v>
+      </c>
+      <c r="K57" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="7">
+        <v>15</v>
+      </c>
+      <c r="K58" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="7">
+        <v>14</v>
+      </c>
+      <c r="K59" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="7">
+        <v>5</v>
+      </c>
+      <c r="K60" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="7">
+        <v>15</v>
+      </c>
+      <c r="K61" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" s="7">
+        <v>6</v>
+      </c>
+      <c r="K62" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63" s="19">
+        <v>15</v>
+      </c>
+      <c r="K63" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" s="7">
+        <v>15</v>
+      </c>
+      <c r="K64" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="7">
+        <v>6</v>
+      </c>
+      <c r="K65" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J66" s="7">
+        <v>14</v>
+      </c>
+      <c r="K66" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J67" s="7">
+        <v>15</v>
+      </c>
+      <c r="K67" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J68" s="7">
+        <v>10</v>
+      </c>
+      <c r="K68" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="7">
+        <v>15</v>
+      </c>
+      <c r="K69" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J70" s="7">
+        <v>10</v>
+      </c>
+      <c r="K70" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J71" s="19">
+        <v>15</v>
+      </c>
+      <c r="K71" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J72" s="7">
+        <v>15</v>
+      </c>
+      <c r="K72" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J73" s="7">
+        <v>8</v>
+      </c>
+      <c r="K73" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J74" s="7">
+        <v>7</v>
+      </c>
+      <c r="K74" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J75" s="7">
+        <v>15</v>
+      </c>
+      <c r="K75" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J76" s="7">
+        <v>7</v>
+      </c>
+      <c r="K76" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="7">
+        <v>15</v>
+      </c>
+      <c r="K77" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J78" s="7">
+        <v>10</v>
+      </c>
+      <c r="K78" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J79" s="7">
+        <v>15</v>
+      </c>
+      <c r="K79" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" s="7">
+        <v>5</v>
+      </c>
+      <c r="K80" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>85</v>
+      </c>
+      <c r="H81" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="7">
+        <v>15</v>
+      </c>
+      <c r="K81" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" s="7">
+        <v>15</v>
+      </c>
+      <c r="K82" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J83" s="7">
+        <v>12</v>
+      </c>
+      <c r="K83" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="7">
+        <v>11</v>
+      </c>
+      <c r="K84" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J85" s="7">
+        <v>15</v>
+      </c>
+      <c r="K85" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" s="7">
+        <v>15</v>
+      </c>
+      <c r="K86" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J87" s="19">
+        <v>10</v>
+      </c>
+      <c r="K87" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" s="7">
+        <v>15</v>
+      </c>
+      <c r="K88" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J89" s="7">
+        <v>7</v>
+      </c>
+      <c r="K89" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J90" s="7">
+        <v>15</v>
+      </c>
+      <c r="K90" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" t="s">
+        <v>60</v>
+      </c>
+      <c r="H91" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J91" s="7">
+        <v>7</v>
+      </c>
+      <c r="K91" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J92" s="7">
+        <v>15</v>
+      </c>
+      <c r="K92" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J93" s="7">
+        <v>14</v>
+      </c>
+      <c r="K93" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J94" s="7">
+        <v>15</v>
+      </c>
+      <c r="K94" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" t="s">
+        <v>52</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="7">
+        <v>11</v>
+      </c>
+      <c r="K95" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J96" s="7">
+        <v>15</v>
+      </c>
+      <c r="K96" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" t="s">
+        <v>58</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" s="7">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J98" s="7">
+        <v>15</v>
+      </c>
+      <c r="K98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J99" s="7">
+        <v>9</v>
+      </c>
+      <c r="K99" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J100" s="7">
+        <v>15</v>
+      </c>
+      <c r="K100" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J101" s="7">
+        <v>14</v>
+      </c>
+      <c r="K101" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J102" s="7">
+        <v>15</v>
+      </c>
+      <c r="K102" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J103" s="19">
+        <v>13</v>
+      </c>
+      <c r="K103" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" t="s">
+        <v>60</v>
+      </c>
+      <c r="H104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J104" s="7">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" s="7">
+        <v>15</v>
+      </c>
+      <c r="K105" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J106" s="7">
+        <v>11</v>
+      </c>
+      <c r="K106" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" t="s">
+        <v>52</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" s="7">
+        <v>15</v>
+      </c>
+      <c r="K107" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J108" s="7">
+        <v>15</v>
+      </c>
+      <c r="K108" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G109" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" t="s">
+        <v>58</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J109" s="7">
+        <v>12</v>
+      </c>
+      <c r="K109" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" t="s">
+        <v>69</v>
+      </c>
+      <c r="H110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J110" s="7">
+        <v>15</v>
+      </c>
+      <c r="K110" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J111" s="19">
+        <v>13</v>
+      </c>
+      <c r="K111" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G112" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J112" s="7">
+        <v>15</v>
+      </c>
+      <c r="K112" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J113" s="7">
+        <v>9</v>
+      </c>
+      <c r="K113" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J114" s="7">
+        <v>15</v>
+      </c>
+      <c r="K114" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G115" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J115" s="7">
+        <v>10</v>
+      </c>
+      <c r="K115" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" t="s">
+        <v>60</v>
+      </c>
+      <c r="H116" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J116" s="7">
+        <v>13</v>
+      </c>
+      <c r="K116" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G117" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" t="s">
+        <v>52</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J117" s="7">
+        <v>15</v>
+      </c>
+      <c r="K117" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>62</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J118" s="7">
+        <v>15</v>
+      </c>
+      <c r="K118" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J119" s="19">
+        <v>11</v>
+      </c>
+      <c r="K119" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+    </row>
+    <row r="128" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>124</v>
+      </c>
+      <c r="F128" t="s">
+        <v>143</v>
+      </c>
+      <c r="G128" t="s">
+        <v>53</v>
+      </c>
+      <c r="H128" t="s">
+        <v>52</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J128" s="7">
+        <v>13</v>
+      </c>
+      <c r="K128" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129" t="s">
+        <v>143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s">
+        <v>55</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J129" s="7">
+        <v>15</v>
+      </c>
+      <c r="K129" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" t="s">
+        <v>143</v>
+      </c>
+      <c r="G130" t="s">
+        <v>51</v>
+      </c>
+      <c r="H130" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J130" s="7">
+        <v>12</v>
+      </c>
+      <c r="K130" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J131" s="19">
+        <v>15</v>
+      </c>
+      <c r="K131" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" t="s">
+        <v>144</v>
+      </c>
+      <c r="G132" t="s">
+        <v>51</v>
+      </c>
+      <c r="H132" t="s">
+        <v>52</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J132" s="7">
+        <v>12</v>
+      </c>
+      <c r="K132" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" t="s">
+        <v>124</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J133" s="19">
+        <v>15</v>
+      </c>
+      <c r="K133" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{FFD24029-DFEE-45EC-BD54-8FA1A84C0C5D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/women/W_2021_11_Pisek.xlsx
+++ b/data/women/W_2021_11_Pisek.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E20660-FC68-4BD2-85D1-31750B4E1F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169FDDB-5B09-4B85-B16B-71053E39D18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8928" yWindow="-16392" windowWidth="18624" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="-8952" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="4" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="5" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="6" r:id="rId5"/>
+    <sheet name="total" sheetId="7" r:id="rId1"/>
+    <sheet name="initiation" sheetId="4" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="5" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4415" uniqueCount="105">
   <si>
     <t>Zlatý kord města Písku</t>
   </si>
@@ -410,6 +412,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -531,6 +536,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,11 +816,2735 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189BB867-C563-4239-82EB-F0A9A5AC744A}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38739</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>-7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2">
+        <v>38</v>
+      </c>
+      <c r="P2">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="22">
+        <f>P2/MAX($P$2:$P$50)</f>
+        <v>0.77551020408163263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="22">
+        <f t="shared" ref="Q3:Q50" si="0">P3/MAX($P$2:$P$50)</f>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="22">
+        <f t="shared" si="0"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1">
+        <v>39194</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>-3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.34693877551020408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36516</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.26530612244897961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="0"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37260</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.59183673469387754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.65306122448979587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34429</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>-7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
+      </c>
+      <c r="P12">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81632653061224492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>34628</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K16">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12244897959183673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39520</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>28</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.61224489795918369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>39587</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>-3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>38660</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>-9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19">
+        <v>39</v>
+      </c>
+      <c r="P19">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.79591836734693877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>-10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20">
+        <v>41</v>
+      </c>
+      <c r="P20">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>36</v>
+      </c>
+      <c r="H21" s="1">
+        <v>26851</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>-20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21">
+        <v>49</v>
+      </c>
+      <c r="P21">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.36734693877551022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>35955</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>-12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23">
+        <v>46</v>
+      </c>
+      <c r="P23">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>38454</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>-14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89795918367346939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>38881</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25">
+        <v>19</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30612244897959184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>38901</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>-15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26">
+        <v>47</v>
+      </c>
+      <c r="P26">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1">
+        <v>38167</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>-6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27">
+        <v>36</v>
+      </c>
+      <c r="P27">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.73469387755102045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.55102040816326525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36841</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22448979591836735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18367346938775511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="22">
+        <f t="shared" si="0"/>
+        <v>0.24489795918367346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>35194</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34">
+        <v>15</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="22">
+        <f t="shared" si="0"/>
+        <v>0.40816326530612246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>39264</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>-4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48979591836734693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K36">
+        <v>26</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36">
+        <v>14</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="22">
+        <f t="shared" si="0"/>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>38983</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>-13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37">
+        <v>43</v>
+      </c>
+      <c r="P37">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="0"/>
+        <v>0.87755102040816324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>-2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O38">
+        <v>31</v>
+      </c>
+      <c r="P38">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="0"/>
+        <v>0.67346938775510201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38458</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>81</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="shared" si="0"/>
+        <v>0.44897959183673469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>-2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>81</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="22">
+        <f t="shared" si="0"/>
+        <v>0.63265306122448983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1">
+        <v>36945</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>25</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>-2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>81</v>
+      </c>
+      <c r="O41">
+        <v>29</v>
+      </c>
+      <c r="P41">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32653061224489793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>32</v>
+      </c>
+      <c r="H42" s="1">
+        <v>36450</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K42">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="22">
+        <f t="shared" si="0"/>
+        <v>0.38775510204081631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>59</v>
+      </c>
+      <c r="H43" s="1">
+        <v>34153</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>-18</v>
+      </c>
+      <c r="N43" t="s">
+        <v>82</v>
+      </c>
+      <c r="O43">
+        <v>48</v>
+      </c>
+      <c r="P43">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="shared" si="0"/>
+        <v>0.97959183673469385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>59</v>
+      </c>
+      <c r="H44" s="1">
+        <v>38729</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K44">
+        <v>15</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>-14</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44">
+        <v>44</v>
+      </c>
+      <c r="P44">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89795918367346939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>38375</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K45">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>-11</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
+      </c>
+      <c r="O45">
+        <v>42</v>
+      </c>
+      <c r="P45">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>62</v>
+      </c>
+      <c r="H46" s="1">
+        <v>38359</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>27</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>81</v>
+      </c>
+      <c r="O46">
+        <v>24</v>
+      </c>
+      <c r="P46">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>39317</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>26</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47">
+        <v>25</v>
+      </c>
+      <c r="P47">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="shared" si="0"/>
+        <v>0.44897959183673469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K48">
+        <v>26</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>81</v>
+      </c>
+      <c r="O48">
+        <v>13</v>
+      </c>
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1">
+        <v>37441</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>0.5</v>
+      </c>
+      <c r="K49">
+        <v>26</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
+      <c r="O49">
+        <v>17</v>
+      </c>
+      <c r="P49">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>36</v>
+      </c>
+      <c r="H50" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K50">
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>-6</v>
+      </c>
+      <c r="N50" t="s">
+        <v>81</v>
+      </c>
+      <c r="O50">
+        <v>37</v>
+      </c>
+      <c r="P50">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="22">
+        <f t="shared" si="0"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{189BB867-C563-4239-82EB-F0A9A5AC744A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE0AEB6-572F-4034-A277-15B328B49123}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,12 +4715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF7811-8C2D-4072-9491-029AC20D38E1}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,31 +4774,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>-7</v>
       </c>
       <c r="J2" t="s">
         <v>81</v>
@@ -2085,31 +4815,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>81</v>
@@ -2126,31 +4856,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
@@ -2167,10 +4897,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2179,19 +4909,19 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="J5" t="s">
         <v>81</v>
@@ -2249,31 +4979,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>81</v>
@@ -2290,31 +5020,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>81</v>
@@ -2331,31 +5061,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
         <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G9">
-        <v>27</v>
-      </c>
-      <c r="H9">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
       </c>
       <c r="J9" t="s">
         <v>81</v>
@@ -2372,31 +5102,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.83299999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -2413,31 +5143,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="J11" t="s">
         <v>81</v>
@@ -2454,10 +5184,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2466,22 +5196,22 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.66700000000000004</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1">
         <v>44507</v>
@@ -2495,10 +5225,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2516,10 +5246,10 @@
         <v>28</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>81</v>
@@ -2536,31 +5266,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0.66700000000000004</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>81</v>
@@ -2577,31 +5307,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
         <v>81</v>
@@ -2618,31 +5348,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>0.66700000000000004</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
         <v>81</v>
@@ -2659,31 +5389,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G17">
-        <v>24</v>
       </c>
       <c r="H17">
         <v>22</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="s">
         <v>81</v>
@@ -2700,13 +5430,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -2718,13 +5448,13 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="J18" t="s">
         <v>81</v>
@@ -2741,31 +5471,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="J19" t="s">
         <v>81</v>
@@ -2782,34 +5512,34 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="1">
         <v>44507</v>
@@ -2823,34 +5553,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>26</v>
-      </c>
-      <c r="H21">
-        <v>22</v>
-      </c>
       <c r="I21">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="1">
         <v>44507</v>
@@ -2864,22 +5594,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G22">
         <v>26</v>
@@ -2905,34 +5635,34 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" s="1">
         <v>44507</v>
@@ -2946,10 +5676,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -2958,22 +5688,22 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1">
         <v>44507</v>
@@ -2987,10 +5717,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -3005,13 +5735,13 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>81</v>
@@ -3028,34 +5758,34 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" s="1">
         <v>44507</v>
@@ -3069,10 +5799,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3081,19 +5811,19 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
@@ -3110,13 +5840,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -3128,13 +5858,13 @@
         <v>0.5</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
@@ -3151,13 +5881,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -3169,13 +5899,13 @@
         <v>0.5</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>81</v>
@@ -3192,10 +5922,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -3204,19 +5934,19 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
         <v>81</v>
@@ -3233,31 +5963,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
         <v>81</v>
@@ -3274,13 +6004,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -3292,13 +6022,13 @@
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I32">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
@@ -3315,31 +6045,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I33">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
         <v>81</v>
@@ -3356,31 +6086,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>22</v>
+      </c>
+      <c r="I34">
         <v>3</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>20</v>
-      </c>
-      <c r="H34">
-        <v>24</v>
-      </c>
-      <c r="I34">
-        <v>-4</v>
       </c>
       <c r="J34" t="s">
         <v>81</v>
@@ -3397,10 +6127,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -3409,19 +6139,19 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.33300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
         <v>24</v>
       </c>
-      <c r="H35">
-        <v>26</v>
-      </c>
       <c r="I35">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J35" t="s">
         <v>81</v>
@@ -3438,10 +6168,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -3450,19 +6180,19 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>81</v>
@@ -3479,10 +6209,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -3491,22 +6221,22 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.33300000000000002</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I37">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" s="1">
         <v>44507</v>
@@ -3520,31 +6250,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>0.33300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I38">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="J38" t="s">
         <v>81</v>
@@ -3561,31 +6291,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>24</v>
+      </c>
+      <c r="I39">
         <v>2</v>
-      </c>
-      <c r="F39">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G39">
-        <v>21</v>
-      </c>
-      <c r="H39">
-        <v>28</v>
-      </c>
-      <c r="I39">
-        <v>-7</v>
       </c>
       <c r="J39" t="s">
         <v>81</v>
@@ -3602,31 +6332,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>0.33300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H40">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I40">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="J40" t="s">
         <v>81</v>
@@ -3643,10 +6373,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -3655,22 +6385,22 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0.16700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H41">
         <v>27</v>
       </c>
       <c r="I41">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" s="1">
         <v>44507</v>
@@ -3684,34 +6414,34 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>0.16700000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I42">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42" s="1">
         <v>44507</v>
@@ -3725,31 +6455,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I43">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="J43" t="s">
         <v>82</v>
@@ -3766,10 +6496,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -3784,13 +6514,13 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>29</v>
       </c>
       <c r="I44">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="J44" t="s">
         <v>82</v>
@@ -3807,13 +6537,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -3825,13 +6555,13 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>29</v>
       </c>
       <c r="I45">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="J45" t="s">
         <v>82</v>
@@ -3848,34 +6578,34 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>0.16700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I46">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" s="1">
         <v>44507</v>
@@ -3889,34 +6619,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I47">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K47" s="1">
         <v>44507</v>
@@ -3930,34 +6660,34 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I48">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K48" s="1">
         <v>44507</v>
@@ -3971,34 +6701,34 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I49">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K49" s="1">
         <v>44507</v>
@@ -4012,34 +6742,34 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I50">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50" s="1">
         <v>44507</v>
@@ -4054,7 +6784,7 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{7FAF7811-8C2D-4072-9491-029AC20D38E1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M50">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4062,12 +6792,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D45483-4325-4FE5-ABFC-B181B3C5AC5C}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4108,19 +6838,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>33010</v>
+        <v>38739</v>
       </c>
       <c r="F2" s="1">
         <v>44507</v>
@@ -4134,19 +6864,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>37371</v>
+        <v>37414</v>
       </c>
       <c r="F3" s="1">
         <v>44507</v>
@@ -4160,19 +6890,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>33018</v>
+        <v>37371</v>
       </c>
       <c r="F4" s="1">
         <v>44507</v>
@@ -4186,10 +6916,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -4198,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>37444</v>
+        <v>39194</v>
       </c>
       <c r="F5" s="1">
         <v>44507</v>
@@ -4212,19 +6942,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>37414</v>
+        <v>36617</v>
       </c>
       <c r="F6" s="1">
         <v>44507</v>
@@ -4238,19 +6968,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>36590</v>
+        <v>36516</v>
       </c>
       <c r="F7" s="1">
         <v>44507</v>
@@ -4264,19 +6994,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>35537</v>
+        <v>33010</v>
       </c>
       <c r="F8" s="1">
         <v>44507</v>
@@ -4290,19 +7020,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>37441</v>
+        <v>33420</v>
       </c>
       <c r="F9" s="1">
         <v>44507</v>
@@ -4316,19 +7046,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>34911</v>
+        <v>37260</v>
       </c>
       <c r="F10" s="1">
         <v>44507</v>
@@ -4342,10 +7072,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -4354,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>36325</v>
+        <v>37934</v>
       </c>
       <c r="F11" s="1">
         <v>44507</v>
@@ -4368,10 +7098,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -4380,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>36841</v>
+        <v>34429</v>
       </c>
       <c r="F12" s="1">
         <v>44507</v>
@@ -4394,19 +7124,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>36310</v>
+        <v>35537</v>
       </c>
       <c r="F13" s="1">
         <v>44507</v>
@@ -4420,19 +7150,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>36516</v>
+        <v>34628</v>
       </c>
       <c r="F14" s="1">
         <v>44507</v>
@@ -4446,19 +7176,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>37171</v>
+        <v>36590</v>
       </c>
       <c r="F15" s="1">
         <v>44507</v>
@@ -4472,19 +7202,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>38881</v>
+        <v>36590</v>
       </c>
       <c r="F16" s="1">
         <v>44507</v>
@@ -4498,19 +7228,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>36945</v>
+        <v>39520</v>
       </c>
       <c r="F17" s="1">
         <v>44507</v>
@@ -4524,19 +7254,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>36617</v>
+        <v>39587</v>
       </c>
       <c r="F18" s="1">
         <v>44507</v>
@@ -4550,19 +7280,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>36091</v>
+        <v>38660</v>
       </c>
       <c r="F19" s="1">
         <v>44507</v>
@@ -4576,19 +7306,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>36450</v>
+        <v>36889</v>
       </c>
       <c r="F20" s="1">
         <v>44507</v>
@@ -4602,19 +7332,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>35194</v>
+        <v>26851</v>
       </c>
       <c r="F21" s="1">
         <v>44507</v>
@@ -4628,19 +7358,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>36590</v>
+        <v>36091</v>
       </c>
       <c r="F22" s="1">
         <v>44507</v>
@@ -4654,19 +7384,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>38458</v>
+        <v>35955</v>
       </c>
       <c r="F23" s="1">
         <v>44507</v>
@@ -4680,10 +7410,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -4692,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>39317</v>
+        <v>38454</v>
       </c>
       <c r="F24" s="1">
         <v>44507</v>
@@ -4706,19 +7436,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>39264</v>
+        <v>38881</v>
       </c>
       <c r="F25" s="1">
         <v>44507</v>
@@ -4732,19 +7462,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>34628</v>
+        <v>38901</v>
       </c>
       <c r="F26" s="1">
         <v>44507</v>
@@ -4758,19 +7488,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>33420</v>
+        <v>38167</v>
       </c>
       <c r="F27" s="1">
         <v>44507</v>
@@ -4810,19 +7540,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>38359</v>
+        <v>36841</v>
       </c>
       <c r="F29" s="1">
         <v>44507</v>
@@ -4836,10 +7566,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -4848,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>37260</v>
+        <v>33018</v>
       </c>
       <c r="F30" s="1">
         <v>44507</v>
@@ -4862,19 +7592,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>39520</v>
+        <v>34911</v>
       </c>
       <c r="F31" s="1">
         <v>44507</v>
@@ -4888,19 +7618,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>36429</v>
+        <v>36310</v>
       </c>
       <c r="F32" s="1">
         <v>44507</v>
@@ -4914,10 +7644,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -4926,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>37934</v>
+        <v>37444</v>
       </c>
       <c r="F33" s="1">
         <v>44507</v>
@@ -4940,19 +7670,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>35707</v>
+        <v>35194</v>
       </c>
       <c r="F34" s="1">
         <v>44507</v>
@@ -4966,10 +7696,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -4978,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>39587</v>
+        <v>39264</v>
       </c>
       <c r="F35" s="1">
         <v>44507</v>
@@ -4992,10 +7722,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -5004,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>39194</v>
+        <v>36325</v>
       </c>
       <c r="F36" s="1">
         <v>44507</v>
@@ -5018,10 +7748,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -5030,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>38167</v>
+        <v>38983</v>
       </c>
       <c r="F37" s="1">
         <v>44507</v>
@@ -5044,19 +7774,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>38143</v>
+        <v>35707</v>
       </c>
       <c r="F38" s="1">
         <v>44507</v>
@@ -5070,19 +7800,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>38739</v>
+        <v>38458</v>
       </c>
       <c r="F39" s="1">
         <v>44507</v>
@@ -5096,19 +7826,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>38660</v>
+        <v>36429</v>
       </c>
       <c r="F40" s="1">
         <v>44507</v>
@@ -5122,10 +7852,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -5134,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>34429</v>
+        <v>36945</v>
       </c>
       <c r="F41" s="1">
         <v>44507</v>
@@ -5148,19 +7878,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>36889</v>
+        <v>36450</v>
       </c>
       <c r="F42" s="1">
         <v>44507</v>
@@ -5174,19 +7904,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>38375</v>
+        <v>34153</v>
       </c>
       <c r="F43" s="1">
         <v>44507</v>
@@ -5200,10 +7930,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -5212,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>38983</v>
+        <v>38729</v>
       </c>
       <c r="F44" s="1">
         <v>44507</v>
@@ -5226,19 +7956,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>38454</v>
+        <v>38375</v>
       </c>
       <c r="F45" s="1">
         <v>44507</v>
@@ -5252,19 +7982,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>38729</v>
+        <v>38359</v>
       </c>
       <c r="F46" s="1">
         <v>44507</v>
@@ -5278,19 +8008,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>35955</v>
+        <v>39317</v>
       </c>
       <c r="F47" s="1">
         <v>44507</v>
@@ -5304,19 +8034,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>38901</v>
+        <v>37171</v>
       </c>
       <c r="F48" s="1">
         <v>44507</v>
@@ -5330,19 +8060,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>34153</v>
+        <v>37441</v>
       </c>
       <c r="F49" s="1">
         <v>44507</v>
@@ -5356,19 +8086,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>26851</v>
+        <v>38143</v>
       </c>
       <c r="F50" s="1">
         <v>44507</v>
@@ -5383,7 +8113,7 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{86D45483-4325-4FE5-ABFC-B181B3C5AC5C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5391,7 +8121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB4226-E0CD-4964-B32A-B8C5B4CC6858}">
   <dimension ref="A1:K296"/>
   <sheetViews>
@@ -15745,7 +18475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD24029-DFEE-45EC-BD54-8FA1A84C0C5D}">
   <dimension ref="A1:K134"/>
   <sheetViews>
